--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.886183" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.541977" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.129147" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="4.323881" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.319107" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.860516" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="5.521159" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.773994" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.838967" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.446337" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.039376" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.16609" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.20125" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.78805" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.191426" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
